--- a/600309_万华化学/万华化学.xlsx
+++ b/600309_万华化学/万华化学.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="540" yWindow="500" windowWidth="25600" windowHeight="14780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4882,7 +4882,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5132,28 +5132,28 @@
         <v>111</v>
       </c>
       <c r="B13" s="19">
+        <f>A9*0.54</f>
+        <v>5729605124.0220003</v>
+      </c>
+      <c r="C13" s="19">
+        <f>B13*(1+D9)</f>
+        <v>6016085380.2231007</v>
+      </c>
+      <c r="D13" s="19">
+        <f>C13*(1+D9)</f>
+        <v>6316889649.2342558</v>
+      </c>
+      <c r="E13" s="19">
         <f>A9*(1+D9)</f>
         <v>11140898852.264999</v>
       </c>
-      <c r="C13" s="19">
-        <f>B13*(1+D9)</f>
-        <v>11697943794.87825</v>
-      </c>
-      <c r="D13" s="19">
-        <f>C13*(1+D9)</f>
-        <v>12282840984.622164</v>
-      </c>
-      <c r="E13" s="19">
-        <f>D13*(1+D9)</f>
-        <v>12896983033.853273</v>
-      </c>
       <c r="F13" s="19">
         <f>E13*(1+D9)</f>
-        <v>13541832185.545938</v>
+        <v>11697943794.87825</v>
       </c>
       <c r="G13" s="19">
         <f>F13*C9</f>
-        <v>148960154041.00531</v>
+        <v>128677381743.66075</v>
       </c>
       <c r="H13" s="16"/>
     </row>
@@ -5163,45 +5163,45 @@
       </c>
       <c r="B14" s="17">
         <f>B13/(1+B9)</f>
-        <v>10610379859.299999</v>
+        <v>5456766784.7828569</v>
       </c>
       <c r="C14" s="17">
         <f>C13/(1+B9)^2</f>
-        <v>10610379859.299999</v>
+        <v>5456766784.7828579</v>
       </c>
       <c r="D14" s="17">
         <f>D13/(1+B9)^3</f>
-        <v>10610379859.299999</v>
+        <v>5456766784.7828569</v>
       </c>
       <c r="E14" s="17">
         <f>E13/(1+B9)^4</f>
-        <v>10610379859.300003</v>
+        <v>9165645057.1644516</v>
       </c>
       <c r="F14" s="17">
         <f>F13/(1+B9)^5</f>
-        <v>10610379859.300003</v>
+        <v>9165645057.1644516</v>
       </c>
       <c r="G14" s="17">
         <f>G13/(1+B9)^4</f>
-        <v>122549887374.91502</v>
+        <v>105863200410.24944</v>
       </c>
       <c r="H14" s="17">
         <f>SUM(B14:G14)</f>
-        <v>175601786671.41504</v>
+        <v>140564790878.92691</v>
       </c>
       <c r="I14" s="4">
         <v>2734012800</v>
       </c>
       <c r="J14">
         <f>H14/I14</f>
-        <v>64.228589811801555</v>
+        <v>51.41336239498473</v>
       </c>
       <c r="K14">
         <v>45.52</v>
       </c>
       <c r="L14" s="2">
         <f>J14/K14</f>
-        <v>1.4109971399780656</v>
+        <v>1.1294675394328806</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="H15" s="17">
         <f>H14*E9</f>
-        <v>122921250669.99052</v>
+        <v>98395353615.248825</v>
       </c>
     </row>
     <row r="22" spans="9:10" x14ac:dyDescent="0.2">
@@ -6226,63 +6226,63 @@
         <v>1.0564088662581314E-2</v>
       </c>
       <c r="L13" s="9">
-        <f>SUM(L4:L12)</f>
+        <f t="shared" ref="L13:Z13" si="6">SUM(L4:L12)</f>
         <v>13646843699.949999</v>
       </c>
       <c r="M13" s="9">
-        <f>SUM(M4:M12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N13" s="9">
-        <f>SUM(N4:N12)</f>
+        <f t="shared" si="6"/>
         <v>593837874.78999996</v>
       </c>
       <c r="O13" s="9">
-        <f>SUM(O4:O12)</f>
+        <f t="shared" si="6"/>
         <v>51573719.219999999</v>
       </c>
       <c r="P13" s="9">
-        <f>SUM(P4:P12)</f>
+        <f t="shared" si="6"/>
         <v>991619459.20000005</v>
       </c>
       <c r="Q13" s="9">
-        <f>SUM(Q4:Q12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R13" s="9">
-        <f>SUM(R4:R12)</f>
+        <f t="shared" si="6"/>
         <v>5537351.2299999986</v>
       </c>
       <c r="S13" s="9">
-        <f>SUM(S4:S12)</f>
+        <f t="shared" si="6"/>
         <v>4701751261.7600002</v>
       </c>
       <c r="T13" s="9">
-        <f>SUM(T4:T12)</f>
+        <f t="shared" si="6"/>
         <v>-475122666.5</v>
       </c>
       <c r="U13" s="9">
-        <f>SUM(U4:U12)</f>
+        <f t="shared" si="6"/>
         <v>-844006696.51000011</v>
       </c>
       <c r="V13" s="9">
-        <f>SUM(V4:V12)</f>
+        <f t="shared" si="6"/>
         <v>-2956586.88</v>
       </c>
       <c r="W13" s="9">
-        <f>SUM(W4:W12)</f>
+        <f t="shared" si="6"/>
         <v>-7069413272.5799999</v>
       </c>
       <c r="X13" s="9">
-        <f>SUM(X4:X12)</f>
+        <f t="shared" si="6"/>
         <v>-12400671133.660002</v>
       </c>
       <c r="Y13" s="9">
-        <f>SUM(Y4:Y12)</f>
+        <f t="shared" si="6"/>
         <v>9251840533.3799992</v>
       </c>
       <c r="Z13" s="9">
-        <f>SUM(Z4:Z12)</f>
+        <f t="shared" si="6"/>
         <v>4000000</v>
       </c>
       <c r="AA13" s="9"/>
